--- a/pre_data/Delta_pre.xlsx
+++ b/pre_data/Delta_pre.xlsx
@@ -2340,109 +2340,109 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-0.5419003696409774</v>
+        <v>0.4580996303590226</v>
       </c>
       <c r="D17">
-        <v>-0.5712366089314109</v>
+        <v>0.4287633910685891</v>
       </c>
       <c r="E17">
-        <v>-0.6021609905888248</v>
+        <v>0.3978390094111752</v>
       </c>
       <c r="F17">
-        <v>-0.6347594900565099</v>
+        <v>0.3652405099434901</v>
       </c>
       <c r="G17">
-        <v>-0.6691227371318202</v>
+        <v>0.3308772628681798</v>
       </c>
       <c r="H17">
-        <v>-0.7053462679335709</v>
+        <v>0.2946537320664291</v>
       </c>
       <c r="I17">
-        <v>-0.743530790509972</v>
+        <v>0.256469209490028</v>
       </c>
       <c r="J17">
-        <v>-0.7837824648254195</v>
+        <v>0.2162175351745805</v>
       </c>
       <c r="K17">
-        <v>-0.826213197904643</v>
+        <v>0.173786802095357</v>
       </c>
       <c r="L17">
-        <v>-0.8709409549547118</v>
+        <v>0.1290590450452882</v>
       </c>
       <c r="M17">
-        <v>-0.9180900873299578</v>
+        <v>0.08190991267004222</v>
       </c>
       <c r="N17">
-        <v>-0.9677916782514266</v>
+        <v>0.03220832174857335</v>
       </c>
       <c r="O17">
-        <v>-1.020183907242313</v>
+        <v>-0.02018390724231289</v>
       </c>
       <c r="P17">
-        <v>-1.075412434292303</v>
+        <v>-0.07541243429230304</v>
       </c>
       <c r="Q17">
-        <v>-1.133630804818992</v>
+        <v>-0.133630804818992</v>
       </c>
       <c r="R17">
-        <v>-1.195000876552317</v>
+        <v>-0.195000876552317</v>
       </c>
       <c r="S17">
-        <v>-1.259693269528626</v>
+        <v>-0.259693269528626</v>
       </c>
       <c r="T17">
-        <v>-1.327887840445651</v>
+        <v>-0.3278878404456509</v>
       </c>
       <c r="U17">
-        <v>-1.399774182697062</v>
+        <v>-0.399774182697062</v>
       </c>
       <c r="V17">
-        <v>-1.475552153476787</v>
+        <v>-0.475552153476787</v>
       </c>
       <c r="W17">
-        <v>-1.555432429418648</v>
+        <v>-0.5554324294186479</v>
       </c>
       <c r="X17">
-        <v>-1.639637092315922</v>
+        <v>-0.639637092315922</v>
       </c>
       <c r="Y17">
-        <v>-1.728400246549469</v>
+        <v>-0.728400246549469</v>
       </c>
       <c r="Z17">
-        <v>-1.821968669940695</v>
+        <v>-0.821968669940695</v>
       </c>
       <c r="AA17">
-        <v>-1.920602499839113</v>
+        <v>-0.9206024998391129</v>
       </c>
       <c r="AB17">
-        <v>-2.024575956351832</v>
+        <v>-1.024575956351832</v>
       </c>
       <c r="AC17">
-        <v>-2.134178104725621</v>
+        <v>-1.134178104725621</v>
       </c>
       <c r="AD17">
-        <v>-2.249713659001269</v>
+        <v>-1.249713659001269</v>
       </c>
       <c r="AE17">
-        <v>-2.37150382917433</v>
+        <v>-1.37150382917433</v>
       </c>
       <c r="AF17">
-        <v>-2.49988721421785</v>
+        <v>-1.49988721421785</v>
       </c>
       <c r="AG17">
-        <v>-2.635220743449409</v>
+        <v>-1.635220743449409</v>
       </c>
       <c r="AH17">
-        <v>-2.777880668860035</v>
+        <v>-1.777880668860035</v>
       </c>
       <c r="AI17">
-        <v>-2.928263611163501</v>
+        <v>-1.928263611163501</v>
       </c>
       <c r="AJ17">
-        <v>-3.086787662474777</v>
+        <v>-2.086787662474777</v>
       </c>
       <c r="AK17">
-        <v>-3.25389354868247</v>
+        <v>-2.25389354868247</v>
       </c>
     </row>
     <row r="18" spans="1:37">
